--- a/public/insert_template/themlk.xlsx
+++ b/public/insert_template/themlk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\PHP\quanlycuahang\public\insert_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00CFC67-C659-4034-98A7-7F85070CEAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C9A209-AD38-4B56-9B0C-B591EADF7BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5868" yWindow="564" windowWidth="17172" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thêm linh kiện" sheetId="1" r:id="rId1"/>
@@ -51,10 +51,6 @@
     <t>Giá bán</t>
   </si>
   <si>
-    <t>Trạng thái
-(Mã trạng thái)</t>
-  </si>
-  <si>
     <t>Thông tin khác
 (TK?TT*TK?TT)</t>
   </si>
@@ -66,12 +62,6 @@
     <t>(Ví dụ)</t>
   </si>
   <si>
-    <t>Mã linh kiện</t>
-  </si>
-  <si>
-    <t>Tên linh kiện</t>
-  </si>
-  <si>
     <t>Chỉ số</t>
   </si>
   <si>
@@ -94,13 +84,69 @@
   </si>
   <si>
     <t>Chỉ số?2UF</t>
+  </si>
+  <si>
+    <r>
+      <t>Trạng thái(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+(Mã trạng thái)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mã linh kiện(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Tên linh kiện(*)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +158,14 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -436,15 +490,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.3984375" customWidth="1"/>
     <col min="4" max="4" width="16.69921875" customWidth="1"/>
     <col min="5" max="5" width="12.3984375" customWidth="1"/>
@@ -489,16 +543,16 @@
     </row>
     <row r="3" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -510,30 +564,30 @@
         <v>7</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -551,13 +605,13 @@
         <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">

--- a/public/insert_template/themlk.xlsx
+++ b/public/insert_template/themlk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\PHP\quanlycuahang\public\insert_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C9A209-AD38-4B56-9B0C-B591EADF7BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E562C26-6520-4A79-BC99-594A55B9E8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5868" yWindow="564" windowWidth="17172" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17172" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thêm linh kiện" sheetId="1" r:id="rId1"/>
@@ -488,11 +488,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -614,496 +614,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K102">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/insert_template/themlk.xlsx
+++ b/public/insert_template/themlk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\PHP\quanlycuahang\public\insert_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E562C26-6520-4A79-BC99-594A55B9E8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEB1561-7305-4EE9-8C9E-E1F1AECDE26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17172" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thêm linh kiện" sheetId="1" r:id="rId1"/>
@@ -201,13 +201,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,9 +495,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -502,8 +507,8 @@
     <col min="3" max="3" width="11.3984375" customWidth="1"/>
     <col min="4" max="4" width="16.69921875" customWidth="1"/>
     <col min="5" max="5" width="12.3984375" customWidth="1"/>
-    <col min="6" max="6" width="12.09765625" customWidth="1"/>
-    <col min="7" max="7" width="15.796875" customWidth="1"/>
+    <col min="6" max="6" width="12.09765625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.796875" style="4" customWidth="1"/>
     <col min="8" max="8" width="15.09765625" customWidth="1"/>
     <col min="9" max="9" width="16.3984375" customWidth="1"/>
     <col min="10" max="10" width="28.8984375" bestFit="1" customWidth="1"/>
@@ -557,10 +562,10 @@
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -592,10 +597,10 @@
       <c r="E4">
         <v>10</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>100000</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>150000</v>
       </c>
       <c r="H4">
